--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Journal" sheetId="1" r:id="rId1"/>
+    <sheet name="Rapport" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Planification initiale</t>
   </si>
   <si>
-    <t>Mise en place du ClickUp</t>
-  </si>
-  <si>
     <t>Mise en place initiale de l'outil de gestion de projet.</t>
   </si>
   <si>
@@ -127,6 +125,18 @@
   </si>
   <si>
     <t>Rédaction du mail de début de projet.</t>
+  </si>
+  <si>
+    <t>Zoning</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Ajout de champs personnalisés.</t>
   </si>
 </sst>
 </file>
@@ -307,28 +317,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -346,6 +335,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -353,21 +349,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -650,10 +632,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,10 +649,10 @@
     <col min="7" max="7" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -678,10 +660,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>1</v>
@@ -702,10 +684,13 @@
         <v>7</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>44319</v>
       </c>
@@ -734,8 +719,9 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>44319</v>
       </c>
@@ -753,7 +739,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>12</v>
@@ -764,8 +750,9 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>44319</v>
       </c>
@@ -792,8 +779,9 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>44319</v>
       </c>
@@ -811,19 +799,20 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>44319</v>
       </c>
@@ -850,8 +839,9 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>44319</v>
       </c>
@@ -878,8 +868,9 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44319</v>
       </c>
@@ -900,14 +891,15 @@
         <v>14</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44319</v>
       </c>
@@ -928,16 +920,17 @@
         <v>14</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="18" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44319</v>
       </c>
@@ -958,16 +951,17 @@
         <v>14</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44319</v>
       </c>
@@ -985,19 +979,20 @@
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44319</v>
       </c>
@@ -1015,19 +1010,20 @@
         <v>1.3194444444444398E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44319</v>
       </c>
@@ -1045,19 +1041,20 @@
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>44319</v>
       </c>
@@ -1081,13 +1078,14 @@
         <v>15</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>44319</v>
       </c>
@@ -1105,19 +1103,20 @@
         <v>1.041666666666663E-2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>44320</v>
       </c>
@@ -1135,19 +1134,20 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="20" t="s">
         <v>28</v>
       </c>
+      <c r="G16" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="H16" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>44320</v>
       </c>
@@ -1165,19 +1165,20 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>44320</v>
       </c>
@@ -1191,23 +1192,24 @@
         <v>0.38263888888888892</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E18" si="2">D18-C18</f>
+        <f t="shared" ref="E18:E21" si="2">D18-C18</f>
         <v>1.8055555555555602E-2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>44320</v>
       </c>
@@ -1217,60 +1219,146 @@
       <c r="C19" s="11">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="20"/>
+      <c r="D19" s="11">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>35</v>
+      </c>
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B20" s="10">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>44320</v>
+      </c>
+      <c r="B21" s="10">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>9.3749999999999944E-2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="20"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
@@ -1632,20 +1720,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>"Analyse"</formula>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"Conception"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Communication"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"Communication"</formula>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+      <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"Implémentation"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>"Analyse"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
@@ -1661,4 +1749,18 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -137,6 +137,27 @@
   </si>
   <si>
     <t>Ajout de champs personnalisés.</t>
+  </si>
+  <si>
+    <t>Échange avec le chef de projet</t>
+  </si>
+  <si>
+    <t>Le projet se fera en 5 sprints de 1 semaine.</t>
+  </si>
+  <si>
+    <t>Souris défectueuse</t>
+  </si>
+  <si>
+    <t>Remplacement de la souris.</t>
+  </si>
+  <si>
+    <t>Modification des sprints.</t>
+  </si>
+  <si>
+    <t>Envoie d'un mail</t>
+  </si>
+  <si>
+    <t>Mail annonçant le changement du nombre de sprint précédemment cité.</t>
   </si>
 </sst>
 </file>
@@ -251,11 +272,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -317,7 +335,133 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -355,6 +499,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,1109 +784,1297 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>44319</v>
       </c>
-      <c r="B2" s="10">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>0.375</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>D2-C2</f>
         <v>4.1666666666666685E-2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>44319</v>
       </c>
-      <c r="B3" s="10">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>0.375</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <f t="shared" ref="E3:E9" si="0">D3-C3</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>44319</v>
       </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>1.736111111111116E-2</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>44319</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>44319</v>
       </c>
-      <c r="B6" s="10">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>8.6805555555555525E-2</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44319</v>
       </c>
-      <c r="B7" s="10">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <v>0.5625</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>0.58958333333333335</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>2.7083333333333348E-2</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44319</v>
       </c>
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
         <v>0.58958333333333335</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.59305555555555556</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>3.4722222222222099E-3</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>44319</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>0.62847222222222221</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>3.5416666666666652E-2</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>44319</v>
       </c>
-      <c r="B10" s="10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.64861111111111114</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" ref="E10:E17" si="1">D10-C10</f>
         <v>9.7222222222221877E-3</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44319</v>
       </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <v>0.64861111111111114</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>0.65625</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>7.6388888888888618E-3</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44319</v>
       </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
         <v>0.65625</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>0.6694444444444444</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>1.3194444444444398E-2</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44319</v>
       </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="11">
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
         <v>0.6694444444444444</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>1.1111111111111072E-2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44319</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="10">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>1.0416666666666741E-2</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44319</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>0.70138888888888884</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>1.041666666666663E-2</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44320</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44320</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.35069444444444442</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44320</v>
       </c>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>0.38263888888888892</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" ref="E18:E21" si="2">D18-C18</f>
+      <c r="E18" s="2">
+        <f t="shared" ref="E18:E24" si="2">D18-C18</f>
         <v>1.8055555555555602E-2</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44320</v>
       </c>
-      <c r="B19" s="10">
-        <v>1</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>0.39930555555555558</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="2"/>
         <v>1.6666666666666663E-2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44320</v>
       </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9">
+        <v>1</v>
+      </c>
+      <c r="C20" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="2"/>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44320</v>
       </c>
-      <c r="B21" s="10">
-        <v>1</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="10">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="2"/>
         <v>9.3749999999999944E-2</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
+      <c r="A22" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B22" s="9">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
+      <c r="A23" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
+      <c r="A24" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" ref="E25:E27" si="3">D25-C25</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
+      <c r="A26" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
+      <c r="A27" s="8">
+        <v>44320</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="2"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="2"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
+      <c r="E43" s="2"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="3"/>
+      <c r="E54" s="2"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="3"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="3"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="3"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="3"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="3"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="3"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="3"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="3"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="3"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="3"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="3"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="3"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="3"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="3"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="3"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="3"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="3"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="3"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="3"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="3"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="3"/>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="3"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="3"/>
+      <c r="E82" s="2"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="3"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="3"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="3"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="3"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="3"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="3"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="3"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="3"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="3"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="3"/>
+      <c r="E92" s="2"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="3"/>
+      <c r="E93" s="2"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="3"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="3"/>
+      <c r="E95" s="2"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="3"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="3"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="3"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="3"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="3"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="3"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="3"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="3"/>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="3"/>
+      <c r="E104" s="2"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="3"/>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="3"/>
+      <c r="E106" s="2"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="3"/>
+      <c r="E107" s="2"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="3"/>
+      <c r="E108" s="2"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="3"/>
+      <c r="E109" s="2"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="3"/>
+      <c r="E110" s="2"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="3"/>
+      <c r="E111" s="2"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="3"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="3"/>
+      <c r="E113" s="2"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="3"/>
+      <c r="E114" s="2"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="3"/>
+      <c r="E115" s="2"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="3"/>
+      <c r="E116" s="2"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="3"/>
+      <c r="E117" s="2"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="3"/>
+      <c r="E118" s="2"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="3"/>
+      <c r="E119" s="2"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="3"/>
+      <c r="E120" s="2"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="3"/>
+      <c r="E121" s="2"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="3"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="3"/>
+      <c r="E123" s="2"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="3"/>
+      <c r="E124" s="2"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="3"/>
+      <c r="E125" s="2"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="3"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="3"/>
+      <c r="E127" s="2"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="3"/>
+      <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="3"/>
+      <c r="E129" s="2"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="3"/>
+      <c r="E130" s="2"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="3"/>
+      <c r="E131" s="2"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="3"/>
+      <c r="E132" s="2"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="3"/>
+      <c r="E133" s="2"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="3"/>
+      <c r="E134" s="2"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="3"/>
+      <c r="E135" s="2"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="3"/>
+      <c r="E136" s="2"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="3"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="3"/>
+      <c r="E138" s="2"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="3"/>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="3"/>
+      <c r="E140" s="2"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="3"/>
+      <c r="E141" s="2"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="3"/>
+      <c r="E142" s="2"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="3"/>
+      <c r="E143" s="2"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="3"/>
+      <c r="E144" s="2"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="3"/>
+      <c r="E145" s="2"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="3"/>
+      <c r="E146" s="2"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="3"/>
+      <c r="E147" s="2"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="3"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="3"/>
+      <c r="E149" s="2"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="3"/>
+      <c r="E150" s="2"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="3"/>
+      <c r="E151" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Analyse"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>Mail annonçant le changement du nombre de sprint précédemment cité.</t>
+  </si>
+  <si>
+    <t>Correction du diagramme d'arborescence du site.</t>
+  </si>
+  <si>
+    <t>Diagramme: Arborescence du site: Utilisateur non authentifié, authentifié et administrateur.</t>
+  </si>
+  <si>
+    <t>Ajout des Wireframes.</t>
   </si>
 </sst>
 </file>
@@ -335,130 +344,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -784,7 +674,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,7 +1445,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E27" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E31" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1631,116 +1521,259 @@
       <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="2"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000067E-2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="2"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B29" s="9">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.34583333333333338</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.36736111111111108</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="17"/>
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0.3833333333333333</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5972222222222276E-2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B32" s="9">
+        <v>1</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.40972222222222227</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G36" s="19"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G37" s="19"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="19"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
@@ -2054,22 +2087,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>Ajout des Wireframes.</t>
+  </si>
+  <si>
+    <t>Concernant SwissCenter, le dossier de projet et le journal de travail.</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1448,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E31" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E35" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1652,8 +1655,13 @@
       <c r="C32" s="10">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1669,38 +1677,90 @@
       <c r="L32" s="21"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B33" s="9">
+        <v>1</v>
+      </c>
+      <c r="C33" s="10">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B34" s="9">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0.46458333333333335</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="H35" s="20"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -1708,12 +1768,23 @@
       <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
-      <c r="G36" s="19"/>
+      <c r="F36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="H36" s="20"/>
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
@@ -2125,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Concernant SwissCenter, le dossier de projet et le journal de travail.</t>
+  </si>
+  <si>
+    <t>Rédaction de l'étude de faisabilité.</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
   </sheetPr>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1451,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E35" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E37" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1775,10 +1778,15 @@
         <v>1</v>
       </c>
       <c r="C36" s="10">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="2"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
@@ -1792,13 +1800,31 @@
       <c r="L36" s="21"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="2"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="A37" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
@@ -1818,13 +1844,43 @@
       <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="2"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="2"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="2"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -160,19 +160,37 @@
     <t>Mail annonçant le changement du nombre de sprint précédemment cité.</t>
   </si>
   <si>
-    <t>Correction du diagramme d'arborescence du site.</t>
-  </si>
-  <si>
     <t>Diagramme: Arborescence du site: Utilisateur non authentifié, authentifié et administrateur.</t>
   </si>
   <si>
-    <t>Ajout des Wireframes.</t>
-  </si>
-  <si>
     <t>Concernant SwissCenter, le dossier de projet et le journal de travail.</t>
   </si>
   <si>
-    <t>Rédaction de l'étude de faisabilité.</t>
+    <t>Dossier de projet: Scénarios</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Étude de faisabilité.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Ajout des Wireframes.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Ajout et correction des Wireframes.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Correction du diagramme d'arborescence du site.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Correction des diagrammes de l'arborescence.</t>
+  </si>
+  <si>
+    <t>Réacquisition du sujet.</t>
+  </si>
+  <si>
+    <t>Manque d'informations sur le sujet.</t>
+  </si>
+  <si>
+    <t>Théorie sur la documentation: support_courtV3.5.2.pdf</t>
   </si>
 </sst>
 </file>
@@ -287,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,28 +347,152 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -679,8 +821,8 @@
   </sheetPr>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +834,7 @@
     <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="40.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,16 +862,16 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -762,12 +901,12 @@
       <c r="H2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>44319</v>
       </c>
@@ -787,16 +926,16 @@
       <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -818,16 +957,16 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>44319</v>
       </c>
@@ -847,16 +986,16 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -878,14 +1017,14 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -907,14 +1046,14 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -936,14 +1075,14 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -965,16 +1104,16 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -996,18 +1135,18 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44319</v>
       </c>
@@ -1027,16 +1166,16 @@
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -1058,16 +1197,16 @@
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -1089,16 +1228,16 @@
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -1120,16 +1259,16 @@
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -1142,25 +1281,25 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="D15" s="10">
-        <v>0.70138888888888884</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="1"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1182,16 +1321,16 @@
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -1213,16 +1352,16 @@
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
@@ -1244,16 +1383,16 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
@@ -1275,14 +1414,14 @@
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
@@ -1304,16 +1443,16 @@
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
@@ -1335,14 +1474,14 @@
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
@@ -1364,16 +1503,16 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
@@ -1395,16 +1534,16 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="19" t="s">
+      <c r="G23" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
@@ -1426,16 +1565,16 @@
       <c r="F24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
@@ -1451,22 +1590,22 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E37" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E38" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
@@ -1488,14 +1627,14 @@
       <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
@@ -1517,16 +1656,16 @@
       <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>44322</v>
       </c>
@@ -1546,18 +1685,18 @@
       <c r="F28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="H28" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>44322</v>
       </c>
@@ -1577,16 +1716,16 @@
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
+      <c r="H29" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
@@ -1608,14 +1747,14 @@
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -1637,16 +1776,16 @@
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
+      <c r="H31" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
@@ -1668,18 +1807,18 @@
       <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H32" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+    </row>
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>44322</v>
       </c>
@@ -1699,16 +1838,16 @@
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
+      <c r="H33" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
@@ -1730,18 +1869,18 @@
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>44322</v>
       </c>
@@ -1761,16 +1900,18 @@
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H35" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+    </row>
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>44322</v>
       </c>
@@ -1790,14 +1931,16 @@
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+      <c r="H36" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
@@ -1819,29 +1962,53 @@
       <c r="F37" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="2"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
+      <c r="H37" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <v>44322</v>
+      </c>
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I38" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
@@ -1849,12 +2016,12 @@
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
@@ -1862,12 +2029,12 @@
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1875,12 +2042,12 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
@@ -2214,27 +2381,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2243,8 +2410,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Théorie sur la documentation: support_courtV3.5.2.pdf</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Stratégie de test</t>
   </si>
 </sst>
 </file>
@@ -366,133 +369,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -821,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:L151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1467,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E38" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E39" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1929,7 +1806,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>20</v>
@@ -1960,7 +1837,7 @@
         <v>3.472222222222221E-2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>20</v>
@@ -1991,7 +1868,7 @@
         <v>6.597222222222221E-2</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>20</v>
@@ -2011,26 +1888,57 @@
       <c r="L38" s="18"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="2"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
+      <c r="A39" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+      <c r="A40" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B40" s="9">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>0.34375</v>
+      </c>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="F40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
       <c r="K40" s="18"/>
@@ -2050,19 +1958,69 @@
       <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="2"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="2"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="2"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="2"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="2"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
@@ -2381,22 +2339,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Conception</t>
   </si>
   <si>
-    <t>Dossier de projet: Analyse / Conception: Concept</t>
-  </si>
-  <si>
     <t>Diagramme: Cas d'utilisation</t>
   </si>
   <si>
@@ -194,6 +191,21 @@
   </si>
   <si>
     <t>Dossier de projet: Stratégie de test</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Risques techniques</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Concept</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Analyse concurentielle</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>Diagramme MCD</t>
   </si>
 </sst>
 </file>
@@ -373,13 +385,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -409,6 +414,13 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -696,11 +708,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -746,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>8</v>
@@ -801,7 +811,7 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>12</v>
@@ -861,10 +871,10 @@
         <v>1.388888888888884E-2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" s="16" t="s">
         <v>16</v>
@@ -1023,7 +1033,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>44319</v>
       </c>
@@ -1047,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="16"/>
@@ -1078,7 +1088,7 @@
         <v>20</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1109,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1140,7 +1150,7 @@
         <v>15</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
@@ -1165,13 +1175,13 @@
         <v>1.3888888888888951E-2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="16"/>
@@ -1196,13 +1206,13 @@
         <v>1.7361111111111105E-2</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1227,13 +1237,13 @@
         <v>1.3888888888888895E-2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -1261,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="G18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>34</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1292,7 +1302,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -1318,13 +1328,13 @@
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -1352,7 +1362,7 @@
         <v>23</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -1381,10 +1391,10 @@
         <v>9</v>
       </c>
       <c r="G22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -1412,12 +1422,12 @@
         <v>6</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -1440,13 +1450,13 @@
         <v>6.9444444444445308E-3</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1467,17 +1477,17 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E39" si="3">D25-C25</f>
+        <f t="shared" ref="E25:F44" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -1505,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -1534,7 +1544,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -1560,13 +1570,13 @@
         <v>1.2500000000000067E-2</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -1597,7 +1607,7 @@
         <v>20</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -1625,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="18"/>
@@ -1657,7 +1667,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -1688,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -1719,7 +1729,7 @@
         <v>20</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -1747,10 +1757,10 @@
         <v>9</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -1781,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -1806,13 +1816,13 @@
         <v>3.125E-2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -1843,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -1874,16 +1884,16 @@
         <v>20</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="L38" s="18"/>
     </row>
@@ -1911,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -1928,8 +1938,13 @@
       <c r="C40" s="10">
         <v>0.34375</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>5.555555555555558E-2</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1937,7 +1952,7 @@
         <v>20</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="18"/>
@@ -1945,82 +1960,134 @@
       <c r="L40" s="18"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="2"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
+      <c r="A41" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B41" s="9">
+        <v>1</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>56</v>
+      </c>
       <c r="I41" s="18"/>
       <c r="J41" s="18"/>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="2"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="18"/>
+      <c r="A42" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B42" s="9">
+        <v>1</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>57</v>
+      </c>
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="2"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
+      <c r="A43" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B43" s="9">
+        <v>1</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1527777777777701E-2</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>59</v>
+      </c>
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="2"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="18"/>
+      <c r="A44" s="8">
+        <v>44323</v>
+      </c>
+      <c r="B44" s="9">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.46249999999999997</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0138888888888928E-2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>61</v>
+      </c>
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
       <c r="E46" s="2"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
@@ -2331,31 +2398,25 @@
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="2"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="2"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Problème"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Implémentation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
       <formula>"Analyse"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>"Problème"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
@@ -2394,5 +2455,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Diagramme MCD</t>
+  </si>
+  <si>
+    <t>La conception des Wireframes m'aura demandé beaucoup de temps.</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,9 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1477,7 +1482,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:F44" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E45" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1614,7 +1619,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>44322</v>
       </c>
@@ -1641,7 +1646,9 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="L30" s="18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
@@ -2084,63 +2091,197 @@
       <c r="L44" s="18"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
+      <c r="A45" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B45" s="9">
+        <v>2</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="3"/>
+        <v>4.9305555555555602E-2</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="2"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="2"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G48" s="17"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G49" s="17"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G50" s="17"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G51" s="17"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G52" s="17"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="8"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G53" s="17"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G54" s="17"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G55" s="17"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,45 @@
   </si>
   <si>
     <t>La conception des Wireframes m'aura demandé beaucoup de temps.</t>
+  </si>
+  <si>
+    <t>Rédaction d'un email.</t>
+  </si>
+  <si>
+    <t>Réponse au mail du Chef de projet pour le déplacement de la sprint review.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Budget initial</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Planification détaillée</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Historique</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Analyse de l'environnement</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Charte graphique</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Conception de la base de données</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Conception du code</t>
+  </si>
+  <si>
+    <t>La conception du code étant normalisée en modèle MVC, les diagrammes de flux de la partie "Conception du code" du dossier de projet sont abandonnés.</t>
+  </si>
+  <si>
+    <t>Dossier de projet: Finalisation de la conception</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
+  </si>
+  <si>
+    <t>Mise en place</t>
   </si>
 </sst>
 </file>
@@ -323,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,14 +416,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -417,6 +453,48 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -713,8 +791,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,16 +832,16 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1482,7 +1560,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E45" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E55" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2121,7 +2199,7 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44326</v>
       </c>
@@ -2131,149 +2209,396 @@
       <c r="C46" s="10">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="2"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="18"/>
+      <c r="D46" s="10">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="3"/>
+        <v>4.8611111111110938E-3</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="2"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
+      <c r="A47" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>65</v>
+      </c>
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="2"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="18"/>
+      <c r="A48" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="3"/>
+        <v>3.333333333333327E-2</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="2"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
+      <c r="A49" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5277777777777779E-2</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>66</v>
+      </c>
       <c r="I49" s="18"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="2"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="18"/>
+      <c r="A50" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="2"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="3"/>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="2"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="18"/>
+      <c r="A52" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B52" s="9">
+        <v>2</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="3"/>
+        <v>4.1666666666667074E-3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="2"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="18"/>
+    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B53" s="9">
+        <v>2</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555503E-2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="2"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="18"/>
+    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B54" s="9">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>71</v>
+      </c>
       <c r="I54" s="18"/>
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="18"/>
+      <c r="L54" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B55" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.60625000000000007</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>73</v>
+      </c>
       <c r="I55" s="18"/>
       <c r="J55" s="18"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B56" s="9">
+        <v>2</v>
+      </c>
+      <c r="C56" s="10">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D56" s="10"/>
       <c r="E56" s="2"/>
+      <c r="F56" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="2"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="2"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="2"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="2"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="2"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
@@ -2541,27 +2866,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Implémentation"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Réalisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2571,12 +2896,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="4" tint="0.59999389629810485"/>
         <color theme="5" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -247,7 +247,16 @@
     <t>Réalisation</t>
   </si>
   <si>
-    <t>Mise en place</t>
+    <t>Implémentation de la base mvc du site web.</t>
+  </si>
+  <si>
+    <t>Enivronnement</t>
+  </si>
+  <si>
+    <t>Implémentation</t>
+  </si>
+  <si>
+    <t>Mise en place du lien entre le site et la base de données.</t>
   </si>
 </sst>
 </file>
@@ -420,7 +429,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -453,48 +462,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -792,7 +759,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +771,8 @@
     <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="40.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="41.28515625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="40.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1560,7 +1528,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E55" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E57" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2521,41 +2489,79 @@
       <c r="C56" s="10">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="3"/>
+        <v>2.1527777777777812E-2</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>74</v>
       </c>
       <c r="G56" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="H56" s="18"/>
       <c r="I56" s="18"/>
       <c r="J56" s="18"/>
       <c r="K56" s="18"/>
       <c r="L56" s="18"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="2"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="18"/>
+      <c r="A57" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B57" s="9">
+        <v>2</v>
+      </c>
+      <c r="C57" s="10">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.68958333333333333</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0694444444444375E-2</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="10"/>
+    <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
+        <v>44326</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2</v>
+      </c>
+      <c r="C58" s="10">
+        <v>0.68958333333333333</v>
+      </c>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="18"/>
+      <c r="F58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>78</v>
+      </c>
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18"/>
@@ -2866,22 +2872,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Réalisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
       <formula>"Analyse"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Mise en place du lien entre le site et la base de données.</t>
+  </si>
+  <si>
+    <t>Le site et la base de données n'arrivent pas à communiquer.</t>
+  </si>
+  <si>
+    <t>Recherche du problème.</t>
   </si>
 </sst>
 </file>
@@ -758,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,7 +1534,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E57" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E58" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2551,8 +2557,13 @@
       <c r="C58" s="10">
         <v>0.68958333333333333</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="10">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5277777777777835E-2</v>
+      </c>
       <c r="F58" s="1" t="s">
         <v>74</v>
       </c>
@@ -2562,8 +2573,12 @@
       <c r="H58" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
+      <c r="I58" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="K58" s="18"/>
       <c r="L58" s="18"/>
     </row>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
   <si>
     <t>Date</t>
   </si>
@@ -263,6 +263,36 @@
   </si>
   <si>
     <t>Recherche du problème.</t>
+  </si>
+  <si>
+    <t>Environnement</t>
+  </si>
+  <si>
+    <t>Installation du serveur MySQL.</t>
+  </si>
+  <si>
+    <t>Sprint Review</t>
+  </si>
+  <si>
+    <t>Review Scénarios</t>
+  </si>
+  <si>
+    <t>Review et corrections des scénarios.</t>
+  </si>
+  <si>
+    <t>Review MCD MLD</t>
+  </si>
+  <si>
+    <t>Review et corrections des diagrammes MCD et MLD.</t>
+  </si>
+  <si>
+    <t>Corrections de certains détails.</t>
+  </si>
+  <si>
+    <t>Mise en place de la base de données.</t>
+  </si>
+  <si>
+    <t>Création du script de création de la base de données.</t>
   </si>
 </sst>
 </file>
@@ -764,9 +794,7 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1534,7 +1562,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E58" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E68" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2583,99 +2611,377 @@
       <c r="L58" s="18"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="2"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
+      <c r="A59" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B59" s="9">
+        <v>2</v>
+      </c>
+      <c r="C59" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>82</v>
+      </c>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="2"/>
-      <c r="G60" s="17"/>
+      <c r="A60" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B60" s="9">
+        <v>2</v>
+      </c>
+      <c r="C60" s="10">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" si="3"/>
+        <v>3.5416666666666707E-2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
       <c r="K60" s="18"/>
       <c r="L60" s="18"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="2"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
+    <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B61" s="9">
+        <v>2</v>
+      </c>
+      <c r="C61" s="10">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777846E-2</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="I61" s="18"/>
       <c r="J61" s="18"/>
       <c r="K61" s="18"/>
       <c r="L61" s="18"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
+      <c r="A62" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B62" s="9">
+        <v>2</v>
+      </c>
+      <c r="C62" s="10">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E62" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444364E-2</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
+      <c r="A63" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B63" s="9">
+        <v>2</v>
+      </c>
+      <c r="C63" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.59375</v>
+      </c>
+      <c r="E63" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B64" s="9">
+        <v>2</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D64" s="10">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E64" s="2">
+        <f t="shared" si="3"/>
+        <v>9.7222222222221877E-3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B65" s="9">
+        <v>2</v>
+      </c>
+      <c r="C65" s="10">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="E65" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B66" s="9">
+        <v>2</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E66" s="2">
+        <f t="shared" si="3"/>
+        <v>7.6388888888888618E-3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B67" s="9">
+        <v>2</v>
+      </c>
+      <c r="C67" s="10">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D67" s="10">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="E67" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0138888888888817E-2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
+        <v>44327</v>
+      </c>
+      <c r="B68" s="9">
+        <v>2</v>
+      </c>
+      <c r="C68" s="10">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="D68" s="10">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E68" s="2">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111072E-2</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G69" s="17"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G70" s="17"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G71" s="17"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
@@ -2946,7 +3252,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Création du script de création de la base de données.</t>
+  </si>
+  <si>
+    <t>Vérification/Correction</t>
+  </si>
+  <si>
+    <t>Vérification et correction des détails dans la documentation.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +800,9 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1562,7 +1570,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E68" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E69" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -2918,23 +2926,47 @@
       <c r="K68" s="18"/>
       <c r="L68" s="18"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="2"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="18"/>
+    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B69" s="9">
+        <v>3</v>
+      </c>
+      <c r="C69" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D69" s="10">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="E69" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3194444444444453E-2</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>92</v>
+      </c>
       <c r="I69" s="18"/>
       <c r="J69" s="18"/>
       <c r="K69" s="18"/>
       <c r="L69" s="18"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="8">
+        <v>44333</v>
+      </c>
+      <c r="B70" s="9">
+        <v>3</v>
+      </c>
+      <c r="C70" s="10">
+        <v>0.34652777777777777</v>
+      </c>
       <c r="D70" s="10"/>
       <c r="E70" s="2"/>
       <c r="G70" s="17"/>
@@ -3243,7 +3275,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -299,6 +299,48 @@
   </si>
   <si>
     <t>Vérification et correction des détails dans la documentation.</t>
+  </si>
+  <si>
+    <t>Erreurs PhpStorm</t>
+  </si>
+  <si>
+    <t>Plusieurs erreurs apparaissent au démarrage du serveur web virtuel.</t>
+  </si>
+  <si>
+    <t>Réinstallation de php et de xdebug.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stackoverflow.com/questions/5282264/php-warning-php-startup-unable-to-load-dynamic-library
+https://www.php.net/downloads
+https://xdebug.org/download
+</t>
+  </si>
+  <si>
+    <t>Connexion à la DB</t>
+  </si>
+  <si>
+    <t>Connexion possible depuis MySQL WorkBench, mais PhpMyAdmin inaccessible.</t>
+  </si>
+  <si>
+    <t>Recherche d'une solution.</t>
+  </si>
+  <si>
+    <t>https://www.onlinetutorialspoint.com/mysql/install-mysql-on-windows-10-step-by-step.html</t>
+  </si>
+  <si>
+    <t>Implémentation de la structure HTML.</t>
+  </si>
+  <si>
+    <t>https://material.io/components/text-fields
+https://material.io/components/buttons/web#using-buttons
+https://material.io/components/text-fields/web#other-variations
+https://www.w3schools.com/html/html_form_input_types.asp</t>
+  </si>
+  <si>
+    <t>Dossier de réalisation</t>
+  </si>
+  <si>
+    <t>Listage des éléments du dossier.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,14 +466,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -449,23 +485,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,8 +845,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,62 +855,62 @@
     <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" style="19" customWidth="1"/>
     <col min="8" max="8" width="41.28515625" style="3" customWidth="1"/>
     <col min="9" max="12" width="40.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>44319</v>
       </c>
-      <c r="B2" s="9">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="8">
         <v>0.375</v>
       </c>
       <c r="E2" s="2">
@@ -875,28 +920,28 @@
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>44319</v>
       </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
         <v>0.375</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>0.38194444444444442</v>
       </c>
       <c r="E3" s="2">
@@ -906,28 +951,28 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>44319</v>
       </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E4" s="2">
@@ -937,26 +982,26 @@
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>44319</v>
       </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.4236111111111111</v>
       </c>
       <c r="E5" s="2">
@@ -966,28 +1011,28 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>44319</v>
       </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="E6" s="2">
@@ -997,26 +1042,26 @@
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>44319</v>
       </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>0.58958333333333335</v>
       </c>
       <c r="E7" s="2">
@@ -1026,26 +1071,26 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>44319</v>
       </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8">
         <v>0.58958333333333335</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>0.59305555555555556</v>
       </c>
       <c r="E8" s="2">
@@ -1055,26 +1100,26 @@
       <c r="F8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>44319</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>0.62847222222222221</v>
       </c>
       <c r="E9" s="2">
@@ -1084,28 +1129,28 @@
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>44319</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.64861111111111114</v>
       </c>
       <c r="E10" s="2">
@@ -1115,28 +1160,28 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>44319</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
         <v>0.64861111111111114</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>0.65625</v>
       </c>
       <c r="E11" s="2">
@@ -1146,28 +1191,28 @@
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>44319</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
         <v>0.65625</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>0.6694444444444444</v>
       </c>
       <c r="E12" s="2">
@@ -1177,28 +1222,28 @@
       <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>44319</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
         <v>0.6694444444444444</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0.68055555555555547</v>
       </c>
       <c r="E13" s="2">
@@ -1208,28 +1253,28 @@
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>44319</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>0.69097222222222221</v>
       </c>
       <c r="E14" s="2">
@@ -1239,28 +1284,28 @@
       <c r="F14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>44319</v>
       </c>
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>0.70486111111111116</v>
       </c>
       <c r="E15" s="2">
@@ -1270,28 +1315,28 @@
       <c r="F15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>44320</v>
       </c>
-      <c r="B16" s="9">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0.35069444444444442</v>
       </c>
       <c r="E16" s="2">
@@ -1301,28 +1346,28 @@
       <c r="F16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>44320</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>0.35069444444444442</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>0.36458333333333331</v>
       </c>
       <c r="E17" s="2">
@@ -1332,28 +1377,28 @@
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>44320</v>
       </c>
-      <c r="B18" s="9">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>0.38263888888888892</v>
       </c>
       <c r="E18" s="2">
@@ -1363,28 +1408,28 @@
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>44320</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E19" s="2">
@@ -1394,26 +1439,26 @@
       <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>44320</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>0.41666666666666669</v>
       </c>
       <c r="E20" s="2">
@@ -1423,28 +1468,28 @@
       <c r="F20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>44320</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="E21" s="2">
@@ -1454,26 +1499,26 @@
       <c r="F21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>44320</v>
       </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>0.57638888888888895</v>
       </c>
       <c r="E22" s="2">
@@ -1483,28 +1528,28 @@
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>44320</v>
       </c>
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>0.59722222222222221</v>
       </c>
       <c r="E23" s="2">
@@ -1514,28 +1559,28 @@
       <c r="F23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>44320</v>
       </c>
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.60763888888888895</v>
       </c>
       <c r="E24" s="2">
@@ -1545,59 +1590,59 @@
       <c r="F24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>44320</v>
       </c>
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.60763888888888895</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E69" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E77" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>44320</v>
       </c>
-      <c r="B26" s="9">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10">
+      <c r="B26" s="7">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
         <v>0.61458333333333337</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>0.62847222222222221</v>
       </c>
       <c r="E26" s="2">
@@ -1607,26 +1652,26 @@
       <c r="F26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="6">
         <v>44320</v>
       </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
+      <c r="B27" s="7">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>0.67013888888888884</v>
       </c>
       <c r="E27" s="2">
@@ -1636,26 +1681,26 @@
       <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>44322</v>
       </c>
-      <c r="B28" s="9">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10">
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>0.34583333333333338</v>
       </c>
       <c r="E28" s="2">
@@ -1665,28 +1710,28 @@
       <c r="F28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="6">
         <v>44322</v>
       </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
         <v>0.34583333333333338</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>0.36736111111111108</v>
       </c>
       <c r="E29" s="2">
@@ -1696,28 +1741,28 @@
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>44322</v>
       </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
         <v>0.37152777777777773</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>0.3833333333333333</v>
       </c>
       <c r="E30" s="2">
@@ -1727,28 +1772,28 @@
       <c r="F30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>44322</v>
       </c>
-      <c r="B31" s="9">
-        <v>1</v>
-      </c>
-      <c r="C31" s="10">
+      <c r="B31" s="7">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
         <v>0.3833333333333333</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E31" s="2">
@@ -1758,28 +1803,28 @@
       <c r="F31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>44322</v>
       </c>
-      <c r="B32" s="9">
-        <v>1</v>
-      </c>
-      <c r="C32" s="10">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>0.44097222222222227</v>
       </c>
       <c r="E32" s="2">
@@ -1789,28 +1834,28 @@
       <c r="F32" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>44322</v>
       </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-      <c r="C33" s="10">
+      <c r="B33" s="7">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>0.46458333333333335</v>
       </c>
       <c r="E33" s="2">
@@ -1820,28 +1865,28 @@
       <c r="F33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>44322</v>
       </c>
-      <c r="B34" s="9">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10">
+      <c r="B34" s="7">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8">
         <v>0.46458333333333335</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>0.47569444444444442</v>
       </c>
       <c r="E34" s="2">
@@ -1851,28 +1896,28 @@
       <c r="F34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="6">
         <v>44322</v>
       </c>
-      <c r="B35" s="9">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10">
+      <c r="B35" s="7">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="E35" s="2">
@@ -1882,28 +1927,28 @@
       <c r="F35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>44322</v>
       </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>0.59375</v>
       </c>
       <c r="E36" s="2">
@@ -1913,28 +1958,28 @@
       <c r="F36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="6">
         <v>44322</v>
       </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10">
+      <c r="B37" s="7">
+        <v>1</v>
+      </c>
+      <c r="C37" s="8">
         <v>0.59375</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>0.62847222222222221</v>
       </c>
       <c r="E37" s="2">
@@ -1944,28 +1989,28 @@
       <c r="F37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="17" t="s">
+      <c r="G37" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>44322</v>
       </c>
-      <c r="B38" s="9">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>0.70486111111111116</v>
       </c>
       <c r="E38" s="2">
@@ -1975,34 +2020,34 @@
       <c r="F38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="18" t="s">
+      <c r="H38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="18" t="s">
+      <c r="I38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J38" s="18" t="s">
+      <c r="J38" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="18" t="s">
+      <c r="K38" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="6">
         <v>44323</v>
       </c>
-      <c r="B39" s="9">
-        <v>1</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>0.34375</v>
       </c>
       <c r="E39" s="2">
@@ -2012,28 +2057,28 @@
       <c r="F39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>44323</v>
       </c>
-      <c r="B40" s="9">
-        <v>1</v>
-      </c>
-      <c r="C40" s="10">
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
         <v>0.34375</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E40" s="2">
@@ -2043,28 +2088,28 @@
       <c r="F40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="6">
         <v>44323</v>
       </c>
-      <c r="B41" s="9">
-        <v>1</v>
-      </c>
-      <c r="C41" s="10">
+      <c r="B41" s="7">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>0.42708333333333331</v>
       </c>
       <c r="E41" s="2">
@@ -2074,28 +2119,28 @@
       <c r="F41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="18" t="s">
+      <c r="H41" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>44323</v>
       </c>
-      <c r="B42" s="9">
-        <v>1</v>
-      </c>
-      <c r="C42" s="10">
+      <c r="B42" s="7">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>0.44097222222222227</v>
       </c>
       <c r="E42" s="2">
@@ -2105,28 +2150,28 @@
       <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G42" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="6">
         <v>44323</v>
       </c>
-      <c r="B43" s="9">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10">
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>0.46249999999999997</v>
       </c>
       <c r="E43" s="2">
@@ -2136,28 +2181,28 @@
       <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="18" t="s">
+      <c r="H43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>44323</v>
       </c>
-      <c r="B44" s="9">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10">
+      <c r="B44" s="7">
+        <v>1</v>
+      </c>
+      <c r="C44" s="8">
         <v>0.46249999999999997</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>0.4826388888888889</v>
       </c>
       <c r="E44" s="2">
@@ -2167,28 +2212,28 @@
       <c r="F44" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G44" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="6">
         <v>44326</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>2</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>0.38263888888888892</v>
       </c>
       <c r="E45" s="2">
@@ -2198,28 +2243,28 @@
       <c r="F45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G45" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H45" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>44326</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>2</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>0.38263888888888892</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>0.38750000000000001</v>
       </c>
       <c r="E46" s="2">
@@ -2229,28 +2274,28 @@
       <c r="F46" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="6">
         <v>44326</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>2</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>0.38750000000000001</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E47" s="2">
@@ -2260,28 +2305,28 @@
       <c r="F47" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G47" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="18" t="s">
+      <c r="H47" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>44326</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>2</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>0.44305555555555554</v>
       </c>
       <c r="E48" s="2">
@@ -2291,28 +2336,28 @@
       <c r="F48" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G48" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="6">
         <v>44326</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>2</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>0.44305555555555554</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>0.45833333333333331</v>
       </c>
       <c r="E49" s="2">
@@ -2322,28 +2367,28 @@
       <c r="F49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="18" t="s">
+      <c r="H49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>44326</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="7">
         <v>2</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>0.46527777777777773</v>
       </c>
       <c r="E50" s="2">
@@ -2353,28 +2398,28 @@
       <c r="F50" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="6">
         <v>44326</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>2</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>0.46527777777777773</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>0.47569444444444442</v>
       </c>
       <c r="E51" s="2">
@@ -2384,28 +2429,28 @@
       <c r="F51" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>44326</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>2</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>0.47569444444444442</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>0.47986111111111113</v>
       </c>
       <c r="E52" s="2">
@@ -2415,28 +2460,28 @@
       <c r="F52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G52" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="6">
         <v>44326</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>2</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="8">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="E53" s="2">
@@ -2446,28 +2491,28 @@
       <c r="F53" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G53" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="18" t="s">
+      <c r="H53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
     </row>
     <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>44326</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="8">
         <v>0.59305555555555556</v>
       </c>
       <c r="E54" s="2">
@@ -2477,30 +2522,30 @@
       <c r="F54" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="18" t="s">
+      <c r="H54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18" t="s">
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="6">
         <v>44326</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="7">
         <v>2</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="8">
         <v>0.59305555555555556</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="8">
         <v>0.60625000000000007</v>
       </c>
       <c r="E55" s="2">
@@ -2510,28 +2555,28 @@
       <c r="F55" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G55" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+      <c r="A56" s="6">
         <v>44326</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="7">
         <v>2</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="8">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="8">
         <v>0.62847222222222221</v>
       </c>
       <c r="E56" s="2">
@@ -2541,28 +2586,28 @@
       <c r="F56" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="6">
         <v>44326</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>2</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="8">
         <v>0.68958333333333333</v>
       </c>
       <c r="E57" s="2">
@@ -2572,28 +2617,28 @@
       <c r="F57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G57" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H57" s="18" t="s">
+      <c r="H57" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+      <c r="A58" s="6">
         <v>44326</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="7">
         <v>2</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="8">
         <v>0.68958333333333333</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="8">
         <v>0.70486111111111116</v>
       </c>
       <c r="E58" s="2">
@@ -2603,32 +2648,32 @@
       <c r="F58" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G58" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H58" s="18" t="s">
+      <c r="H58" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="J58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="6">
         <v>44327</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="7">
         <v>2</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="8">
         <v>0.36388888888888887</v>
       </c>
       <c r="E59" s="2">
@@ -2638,28 +2683,28 @@
       <c r="F59" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="18" t="s">
+      <c r="H59" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+      <c r="A60" s="6">
         <v>44327</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="7">
         <v>2</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="8">
         <v>0.36388888888888887</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="8">
         <v>0.39930555555555558</v>
       </c>
       <c r="E60" s="2">
@@ -2669,26 +2714,26 @@
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G60" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="6">
         <v>44327</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="7">
         <v>2</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="8">
         <v>0.41319444444444442</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="8">
         <v>0.44097222222222227</v>
       </c>
       <c r="E61" s="2">
@@ -2698,28 +2743,28 @@
       <c r="F61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G61" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H61" s="18" t="s">
+      <c r="H61" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
+      <c r="A62" s="6">
         <v>44327</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="7">
         <v>2</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="8">
         <v>0.44097222222222227</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="8">
         <v>0.51041666666666663</v>
       </c>
       <c r="E62" s="2">
@@ -2729,28 +2774,28 @@
       <c r="F62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="6">
         <v>44327</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="7">
         <v>2</v>
       </c>
-      <c r="C63" s="10">
+      <c r="C63" s="8">
         <v>0.5625</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="8">
         <v>0.59375</v>
       </c>
       <c r="E63" s="2">
@@ -2760,28 +2805,28 @@
       <c r="F63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G63" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="18" t="s">
+      <c r="H63" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
+      <c r="A64" s="6">
         <v>44327</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="7">
         <v>2</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="8">
         <v>0.59722222222222221</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>0.6069444444444444</v>
       </c>
       <c r="E64" s="2">
@@ -2791,28 +2836,28 @@
       <c r="F64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G64" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="18" t="s">
+      <c r="H64" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="6">
         <v>44327</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>2</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="8">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="8">
         <v>0.62083333333333335</v>
       </c>
       <c r="E65" s="2">
@@ -2822,28 +2867,28 @@
       <c r="F65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G65" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
+      <c r="A66" s="6">
         <v>44327</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="7">
         <v>2</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="8">
         <v>0.62083333333333335</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="8">
         <v>0.62847222222222221</v>
       </c>
       <c r="E66" s="2">
@@ -2853,28 +2898,28 @@
       <c r="F66" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G66" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H66" s="18" t="s">
+      <c r="H66" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="6">
         <v>44327</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="7">
         <v>2</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="8">
         <v>0.65902777777777777</v>
       </c>
       <c r="E67" s="2">
@@ -2884,28 +2929,28 @@
       <c r="F67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="17" t="s">
+      <c r="G67" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H67" s="18" t="s">
+      <c r="H67" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
     </row>
     <row r="68" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
+      <c r="A68" s="6">
         <v>44327</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="7">
         <v>2</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="8">
         <v>0.65902777777777777</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="8">
         <v>0.67013888888888884</v>
       </c>
       <c r="E68" s="2">
@@ -2915,28 +2960,28 @@
       <c r="F68" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G68" s="17" t="s">
+      <c r="G68" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="6">
         <v>44333</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="7">
         <v>3</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="8">
         <v>0.34652777777777777</v>
       </c>
       <c r="E69" s="2">
@@ -2946,75 +2991,322 @@
       <c r="F69" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="17" t="s">
+      <c r="G69" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="H69" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+    </row>
+    <row r="70" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <v>44333</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="7">
         <v>3</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="8">
         <v>0.34652777777777777</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="2"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="2"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
+      <c r="D70" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E70" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8055555555555547E-2</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L70" s="13"/>
+    </row>
+    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B71" s="7">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E71" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+    </row>
+    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B72" s="7">
+        <v>3</v>
+      </c>
+      <c r="C72" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E72" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="L72" s="13"/>
+    </row>
+    <row r="73" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B73" s="7">
+        <v>3</v>
+      </c>
+      <c r="C73" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E73" s="2">
+        <f t="shared" si="3"/>
+        <v>3.4722222222222154E-2</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L73" s="13"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
+      <c r="A74" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B74" s="7">
+        <v>3</v>
+      </c>
+      <c r="C74" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D74" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="3"/>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G74" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
+      <c r="A75" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B75" s="7">
+        <v>3</v>
+      </c>
+      <c r="C75" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D75" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="3"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
+      <c r="A76" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B76" s="7">
+        <v>3</v>
+      </c>
+      <c r="C76" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D76" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="3"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
+      <c r="A77" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B77" s="7">
+        <v>3</v>
+      </c>
+      <c r="C77" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="D77" s="8">
+        <v>0.63055555555555554</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555358E-3</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B78" s="7">
+        <v>3</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D78" s="8"/>
       <c r="E78" s="2"/>
+      <c r="F78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="2"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="2"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="109">
   <si>
     <t>Date</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Recherche d'une solution.</t>
   </si>
   <si>
-    <t>https://www.onlinetutorialspoint.com/mysql/install-mysql-on-windows-10-step-by-step.html</t>
-  </si>
-  <si>
     <t>Implémentation de la structure HTML.</t>
   </si>
   <si>
@@ -341,6 +338,22 @@
   </si>
   <si>
     <t>Listage des éléments du dossier.</t>
+  </si>
+  <si>
+    <t>Mise en place DB</t>
+  </si>
+  <si>
+    <t>Finalisation du script de création de la DB.</t>
+  </si>
+  <si>
+    <t>Perte des données de réalisation du précédent commit.</t>
+  </si>
+  <si>
+    <t>Réimplémentation.</t>
+  </si>
+  <si>
+    <t>https://dev.mysql.com/doc/refman/8.0/en/workbench.html
+https://www.onlinetutorialspoint.com/mysql/install-mysql-on-windows-10-step-by-step.html</t>
   </si>
 </sst>
 </file>
@@ -845,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,7 +1628,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E77" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E79" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3037,7 +3050,7 @@
       </c>
       <c r="L70" s="13"/>
     </row>
-    <row r="71" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>44333</v>
       </c>
@@ -3067,10 +3080,12 @@
       <c r="J71" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K71" s="13"/>
+      <c r="K71" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="L71" s="13"/>
     </row>
-    <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>44333</v>
       </c>
@@ -3098,9 +3113,7 @@
       <c r="J72" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="K72" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="K72" s="14"/>
       <c r="L72" s="13"/>
     </row>
     <row r="73" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3127,12 +3140,12 @@
         <v>77</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L73" s="13"/>
     </row>
@@ -3160,7 +3173,7 @@
         <v>77</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
@@ -3191,7 +3204,7 @@
         <v>77</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I75" s="13"/>
       <c r="J75" s="13"/>
@@ -3219,10 +3232,10 @@
         <v>74</v>
       </c>
       <c r="G76" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="I76" s="13"/>
       <c r="J76" s="13"/>
@@ -3268,8 +3281,13 @@
       <c r="C78" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="2"/>
+      <c r="D78" s="8">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="E78" s="2">
+        <f t="shared" si="3"/>
+        <v>1.8055555555555491E-2</v>
+      </c>
       <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
@@ -3282,16 +3300,38 @@
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="2"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
+    <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>44333</v>
+      </c>
+      <c r="B79" s="7">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.65694444444444444</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E79" s="2">
+        <f t="shared" si="3"/>
+        <v>4.7916666666666718E-2</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
     </row>
@@ -3308,52 +3348,82 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G81" s="18"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G82" s="18"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="G83" s="18"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E84" s="2"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E90" s="2"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E91" s="2"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E92" s="2"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E95" s="2"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="117">
   <si>
     <t>Date</t>
   </si>
@@ -354,6 +354,30 @@
   <si>
     <t>https://dev.mysql.com/doc/refman/8.0/en/workbench.html
 https://www.onlinetutorialspoint.com/mysql/install-mysql-on-windows-10-step-by-step.html</t>
+  </si>
+  <si>
+    <t>Corrections de certains détails en rapport avec la sprint review.</t>
+  </si>
+  <si>
+    <t>Réinstallation de la base de données et des composants.</t>
+  </si>
+  <si>
+    <t>PhpStorm nécessite des composants php qui peuvent être indexés depuis l'application. Je les avais indexés et déposés dans le dossier de l'application. Mais pour les extentions, l'application  les recherches dans un répertoire en particulier. Il fallait les disposer à cet emplacement qui est C:\php\ext.</t>
+  </si>
+  <si>
+    <t>Sign in/Sign up</t>
+  </si>
+  <si>
+    <t>Implémentation et connexion avec la base de données.</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Implémentation de l'affichage de notifications.</t>
+  </si>
+  <si>
+    <t>Erreurs Sign in/Sign up</t>
   </si>
 </sst>
 </file>
@@ -858,8 +882,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,7 +1652,7 @@
         <v>0.61458333333333337</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:E79" si="3">D25-C25</f>
+        <f t="shared" ref="E25:E83" si="3">D25-C25</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -3336,71 +3360,266 @@
       <c r="L79" s="13"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="2"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="13"/>
+      <c r="A80" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B80" s="7">
+        <v>3</v>
+      </c>
+      <c r="C80" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D80" s="8">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E80" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="I80" s="13"/>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="2"/>
-      <c r="G81" s="18"/>
+      <c r="A81" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B81" s="7">
+        <v>3</v>
+      </c>
+      <c r="C81" s="8">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D81" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E81" s="2">
+        <f t="shared" si="3"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="2"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="13"/>
+    <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B82" s="7">
+        <v>3</v>
+      </c>
+      <c r="C82" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E82" s="2">
+        <f t="shared" si="3"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G82" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="2"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="13"/>
+    <row r="83" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B83" s="7">
+        <v>3</v>
+      </c>
+      <c r="C83" s="8">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D83" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E83" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555525E-2</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
+      <c r="J83" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
+    <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B84" s="7">
+        <v>3</v>
+      </c>
+      <c r="C84" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D84" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" ref="E84:E88" si="4">D84-C84</f>
+        <v>3.1249999999999944E-2</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+    </row>
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B85" s="7">
+        <v>3</v>
+      </c>
+      <c r="C85" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D85" s="8">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="E85" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+    </row>
+    <row r="86" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B86" s="7">
+        <v>3</v>
+      </c>
+      <c r="C86" s="8">
+        <v>0.58611111111111114</v>
+      </c>
+      <c r="D86" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E86" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2361111111111072E-2</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
+      <c r="A87" s="6">
+        <v>44334</v>
+      </c>
+      <c r="B87" s="7">
+        <v>3</v>
+      </c>
+      <c r="C87" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D87" s="8">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E87" s="2">
+        <f t="shared" si="4"/>
+        <v>3.1249999999999889E-2</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E89" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
   <si>
     <t>Date</t>
   </si>
@@ -378,6 +378,39 @@
   </si>
   <si>
     <t>Erreurs Sign in/Sign up</t>
+  </si>
+  <si>
+    <t>Ajout d'un objectif</t>
+  </si>
+  <si>
+    <t>Sign in</t>
+  </si>
+  <si>
+    <t>Les erreurs ne s'affichent pas.</t>
+  </si>
+  <si>
+    <t>Visite de l'expert n°2</t>
+  </si>
+  <si>
+    <t>Erreurs d'implémentation des conditions ('!==' à entrer à la place de '!=').</t>
+  </si>
+  <si>
+    <t>Récolte de données</t>
+  </si>
+  <si>
+    <t>Récolte de données pour la base de données.</t>
+  </si>
+  <si>
+    <t>Page d'œuvre</t>
+  </si>
+  <si>
+    <t>Page d'article</t>
+  </si>
+  <si>
+    <t>Mise en forme de base css</t>
+  </si>
+  <si>
+    <t>Page de profil</t>
   </si>
 </sst>
 </file>
@@ -882,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,97 +3633,419 @@
         <v>116</v>
       </c>
       <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
+      <c r="A88" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B88" s="7">
+        <v>3</v>
+      </c>
+      <c r="C88" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D88" s="8">
+        <v>0.34027777777777773</v>
+      </c>
       <c r="E88" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="18"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
+    <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B89" s="7">
+        <v>3</v>
+      </c>
+      <c r="C89" s="8">
+        <v>0.34027777777777773</v>
+      </c>
+      <c r="D89" s="8">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E89" s="2">
+        <f t="shared" ref="E89:E97" si="5">D89-C89</f>
+        <v>5.9027777777777846E-2</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G89" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
+      <c r="A90" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B90" s="7">
+        <v>3</v>
+      </c>
+      <c r="C90" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D90" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E90" s="2">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G90" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
+      <c r="A91" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B91" s="7">
+        <v>3</v>
+      </c>
+      <c r="C91" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E91" s="2">
+        <f t="shared" si="5"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
+      <c r="A92" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="C92" s="8">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E92" s="2">
+        <f t="shared" si="5"/>
+        <v>6.2500000000000333E-3</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B93" s="7">
+        <v>3</v>
+      </c>
+      <c r="C93" s="8">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="D93" s="8">
+        <v>0.4381944444444445</v>
+      </c>
+      <c r="E93" s="2">
+        <f t="shared" si="5"/>
+        <v>4.8611111111111494E-3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G93" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
+      <c r="A94" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B94" s="7">
+        <v>3</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E94" s="2">
+        <f t="shared" si="5"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E95" s="2"/>
+      <c r="A95" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B95" s="7">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E95" s="2">
+        <f t="shared" si="5"/>
+        <v>4.5138888888888895E-2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G95" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="2"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B96" s="7">
+        <v>3</v>
+      </c>
+      <c r="C96" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D96" s="8">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E96" s="2">
+        <f t="shared" si="5"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>44336</v>
+      </c>
+      <c r="B97" s="7">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D97" s="8">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="E97" s="2">
+        <f t="shared" si="5"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="6"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="2">
+        <f t="shared" ref="E98:E102" si="6">D98-C98</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="18"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="6"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="18"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="6"/>
+      <c r="B100" s="7"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="18"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="6"/>
+      <c r="B101" s="7"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="6"/>
+      <c r="B102" s="7"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="18"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E105" s="2"/>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E107" s="2"/>
     </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E108" s="2"/>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E109" s="2"/>
     </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E110" s="2"/>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E111" s="2"/>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="135">
   <si>
     <t>Date</t>
   </si>
@@ -411,6 +411,27 @@
   </si>
   <si>
     <t>Page de profil</t>
+  </si>
+  <si>
+    <t>Mise à jour de l'organisation</t>
+  </si>
+  <si>
+    <t>Réponse au mail de changement de l'Expert 1.</t>
+  </si>
+  <si>
+    <t>Mise à jour de la plannification</t>
+  </si>
+  <si>
+    <t>Modification du profil</t>
+  </si>
+  <si>
+    <t>Ajout des fonctionnalités de modification de photo et description de profil.</t>
+  </si>
+  <si>
+    <t>Page "Utilisateurs"</t>
+  </si>
+  <si>
+    <t>Notation des articles</t>
   </si>
 </sst>
 </file>
@@ -916,7 +937,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +948,7 @@
     <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.28515625" style="3" customWidth="1"/>
     <col min="9" max="12" width="40.7109375" style="3" customWidth="1"/>
   </cols>
@@ -3939,99 +3960,261 @@
       <c r="L97" s="13"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="A98" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B98" s="7">
+        <v>3</v>
+      </c>
+      <c r="C98" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0.34166666666666662</v>
+      </c>
       <c r="E98" s="2">
         <f t="shared" ref="E98:E102" si="6">D98-C98</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="18"/>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B99" s="7">
+        <v>3</v>
+      </c>
+      <c r="C99" s="8">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0.3444444444444445</v>
+      </c>
       <c r="E99" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G99" s="18"/>
-      <c r="H99" s="13"/>
+        <v>2.7777777777778789E-3</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="I99" s="13"/>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
       <c r="L99" s="13"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B100" s="7">
+        <v>3</v>
+      </c>
+      <c r="C100" s="8">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0.34791666666666665</v>
+      </c>
       <c r="E100" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G100" s="18"/>
+        <v>3.4722222222221544E-3</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
       <c r="L100" s="13"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B101" s="7">
+        <v>3</v>
+      </c>
+      <c r="C101" s="8">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E101" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G101" s="18"/>
-      <c r="H101" s="13"/>
+        <v>5.1388888888888928E-2</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="I101" s="13"/>
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
       <c r="L101" s="13"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="6"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+    <row r="102" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B102" s="7">
+        <v>3</v>
+      </c>
+      <c r="C102" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0.43958333333333338</v>
+      </c>
       <c r="E102" s="2">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G102" s="18"/>
-      <c r="H102" s="13"/>
+        <v>2.9861111111111116E-2</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>132</v>
+      </c>
       <c r="I102" s="13"/>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
       <c r="L102" s="13"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E103" s="2"/>
+      <c r="A103" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B103" s="7">
+        <v>3</v>
+      </c>
+      <c r="C103" s="8">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="D103" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E103" s="2">
+        <f t="shared" ref="E103:E107" si="7">D103-C103</f>
+        <v>1.5277777777777724E-2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G103" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E104" s="2"/>
+      <c r="A104" s="6">
+        <v>44337</v>
+      </c>
+      <c r="B104" s="7">
+        <v>3</v>
+      </c>
+      <c r="C104" s="8">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E104" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E105" s="2"/>
+      <c r="A105" s="6"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="18"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E106" s="2"/>
+      <c r="A106" s="6"/>
+      <c r="B106" s="7"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E107" s="2"/>
+      <c r="A107" s="6"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="18"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E108" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="141">
   <si>
     <t>Date</t>
   </si>
@@ -432,6 +432,28 @@
   </si>
   <si>
     <t>Notation des articles</t>
+  </si>
+  <si>
+    <t>Correstions en fonction de la sprint review: date, historique, MCD, stratégire de test.</t>
+  </si>
+  <si>
+    <t>Création d'article</t>
+  </si>
+  <si>
+    <t>Gestion des œuvres</t>
+  </si>
+  <si>
+    <t>Création d'œuvre</t>
+  </si>
+  <si>
+    <t>Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.php.net/manual/fr/reserved.variables.files.php
+https://www.php.net/manual/fr/function.strlen.php
+https://www.php.net/manual/fr/function.str-contains.php
+https://www.php.net/manual/fr/language.operators.comparison.php
+</t>
   </si>
 </sst>
 </file>
@@ -936,8 +958,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,15 +4191,28 @@
       <c r="L104" s="13"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="6"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+      <c r="A105" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B105" s="7">
+        <v>4</v>
+      </c>
+      <c r="C105" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D105" s="8">
+        <v>0.36805555555555558</v>
+      </c>
       <c r="E105" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G105" s="18"/>
+        <v>3.4722222222222265E-2</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" s="18" t="s">
+        <v>134</v>
+      </c>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
       <c r="J105" s="13"/>
@@ -4185,98 +4220,340 @@
       <c r="L105" s="13"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="6"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+      <c r="A106" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B106" s="7">
+        <v>4</v>
+      </c>
+      <c r="C106" s="8">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0.3923611111111111</v>
+      </c>
       <c r="E106" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G106" s="18"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="18" t="s">
+        <v>83</v>
+      </c>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
       <c r="J106" s="13"/>
       <c r="K106" s="13"/>
       <c r="L106" s="13"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+    <row r="107" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B107" s="7">
+        <v>4</v>
+      </c>
+      <c r="C107" s="8">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E107" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G107" s="18"/>
-      <c r="H107" s="13"/>
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G107" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
       <c r="K107" s="13"/>
       <c r="L107" s="13"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E109" s="2"/>
+      <c r="A108" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B108" s="7">
+        <v>4</v>
+      </c>
+      <c r="C108" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D108" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E108" s="2">
+        <f t="shared" ref="E108:E117" si="8">D108-C108</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+    </row>
+    <row r="109" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B109" s="7">
+        <v>4</v>
+      </c>
+      <c r="C109" s="8">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D109" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E109" s="2">
+        <f t="shared" si="8"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E110" s="2"/>
+      <c r="A110" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B110" s="7">
+        <v>4</v>
+      </c>
+      <c r="C110" s="8">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D110" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E110" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777735E-2</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E111" s="2"/>
+      <c r="A111" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B111" s="7">
+        <v>4</v>
+      </c>
+      <c r="C111" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D111" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="E111" s="2">
+        <f t="shared" si="8"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G111" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E112" s="2"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="2"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="2"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="2"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="2"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B112" s="7">
+        <v>4</v>
+      </c>
+      <c r="C112" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="E112" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3194444444444398E-2</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="13"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>44341</v>
+      </c>
+      <c r="B113" s="7">
+        <v>4</v>
+      </c>
+      <c r="C113" s="8">
+        <v>0.6069444444444444</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="2">
+        <f t="shared" si="8"/>
+        <v>-0.6069444444444444</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G113" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="13"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="13"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="18"/>
+      <c r="H114" s="13"/>
+      <c r="I114" s="13"/>
+      <c r="J114" s="13"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="13"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="6"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="18"/>
+      <c r="H115" s="13"/>
+      <c r="I115" s="13"/>
+      <c r="J115" s="13"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="13"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="6"/>
+      <c r="B116" s="7"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="18"/>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+      <c r="K116" s="13"/>
+      <c r="L116" s="13"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="6"/>
+      <c r="B117" s="7"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G117" s="18"/>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+      <c r="K117" s="13"/>
+      <c r="L117" s="13"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E118" s="2"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E119" s="2"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E121" s="2"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E123" s="2"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E125" s="2"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E126" s="2"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E127" s="2"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E128" s="2"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -959,7 +959,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4440,10 +4440,12 @@
       <c r="C113" s="8">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="8">
+        <v>0.67013888888888884</v>
+      </c>
       <c r="E113" s="2">
         <f t="shared" si="8"/>
-        <v>-0.6069444444444444</v>
+        <v>6.3194444444444442E-2</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>74</v>
@@ -4671,7 +4673,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="33" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="146">
   <si>
     <t>Date</t>
   </si>
@@ -454,6 +454,27 @@
 https://www.php.net/manual/fr/function.str-contains.php
 https://www.php.net/manual/fr/language.operators.comparison.php
 </t>
+  </si>
+  <si>
+    <t>Gestion des articles</t>
+  </si>
+  <si>
+    <t>Pop-up de confirmation</t>
+  </si>
+  <si>
+    <t>Suppression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tutorialrepublic.com/faq/how-to-get-the-current-url-with-javascript.php
+https://www.w3schools.com/howto/howto_js_redirect_webpage.asp
+https://www.w3schools.com/tags/att_script_src.asp
+https://www.w3schools.com/js/js_window_location.asp
+https://www.w3schools.com/howto/tryit.asp?filename=tryhow_js_redirect_webpage
+https://developer.mozilla.org/fr/docs/Web/API/window/location
+</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/sql/sql_delete.asp</t>
   </si>
 </sst>
 </file>
@@ -958,8 +979,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4462,89 +4483,253 @@
       <c r="L113" s="13"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="A114" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B114" s="7">
+        <v>4</v>
+      </c>
+      <c r="C114" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.56944444444444442</v>
+      </c>
       <c r="E114" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G114" s="18"/>
-      <c r="H114" s="13"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>139</v>
+      </c>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="6"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
+      <c r="A115" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B115" s="7">
+        <v>4</v>
+      </c>
+      <c r="C115" s="8">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D115" s="8">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E115" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="18"/>
-      <c r="H115" s="13"/>
+        <v>1.3888888888888951E-2</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G115" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
+      <c r="K115" t="s">
+        <v>145</v>
+      </c>
       <c r="L115" s="13"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A116" s="6"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
+      <c r="A116" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B116" s="7">
+        <v>4</v>
+      </c>
+      <c r="C116" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D116" s="8">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="E116" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G116" s="18"/>
-      <c r="H116" s="13"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="I116" s="13"/>
       <c r="J116" s="13"/>
       <c r="K116" s="13"/>
       <c r="L116" s="13"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A117" s="6"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
+    <row r="117" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B117" s="7">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D117" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E117" s="2">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="18"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G117" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
+      <c r="K117" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="L117" s="13"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E118" s="2"/>
+      <c r="A118" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B118" s="7">
+        <v>4</v>
+      </c>
+      <c r="C118" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="2">
+        <f t="shared" ref="E118:E124" si="9">D118-C118</f>
+        <v>-0.63888888888888895</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E119" s="2"/>
+      <c r="A119" s="6"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G119" s="18"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E120" s="2"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G120" s="18"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E121" s="2"/>
+      <c r="A121" s="6"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G121" s="18"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E122" s="2"/>
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G122" s="18"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E123" s="2"/>
+      <c r="A123" s="6"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G123" s="18"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E124" s="2"/>
+      <c r="A124" s="6"/>
+      <c r="B124" s="7"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G124" s="18"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E125" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
   <si>
     <t>Date</t>
   </si>
@@ -475,6 +475,15 @@
   </si>
   <si>
     <t>https://www.w3schools.com/sql/sql_delete.asp</t>
+  </si>
+  <si>
+    <t>Test SwissCenter</t>
+  </si>
+  <si>
+    <t>Test de mise en place du site sur SwissCenter.</t>
+  </si>
+  <si>
+    <t>Header style</t>
   </si>
 </sst>
 </file>
@@ -980,7 +989,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,10 +4627,12 @@
       <c r="C118" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="D118" s="8">
+        <v>0.66180555555555554</v>
+      </c>
       <c r="E118" s="2">
         <f t="shared" ref="E118:E124" si="9">D118-C118</f>
-        <v>-0.63888888888888895</v>
+        <v>2.2916666666666585E-2</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>74</v>
@@ -4635,17 +4646,32 @@
       <c r="K118" s="13"/>
       <c r="L118" s="13"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A119" s="6"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
+    <row r="119" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B119" s="7">
+        <v>4</v>
+      </c>
+      <c r="C119" s="8">
+        <v>0.66180555555555554</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0.6875</v>
+      </c>
       <c r="E119" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="18"/>
-      <c r="H119" s="13"/>
+        <v>2.5694444444444464E-2</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="I119" s="13"/>
       <c r="J119" s="13"/>
       <c r="K119" s="13"/>
@@ -4654,13 +4680,20 @@
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="8"/>
+      <c r="C120" s="8">
+        <v>0.6875</v>
+      </c>
       <c r="D120" s="8"/>
       <c r="E120" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="18"/>
+        <v>-0.6875</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="18" t="s">
+        <v>148</v>
+      </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
   <si>
     <t>Date</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Header style</t>
+  </si>
+  <si>
+    <t>Commentarisation du code</t>
   </si>
 </sst>
 </file>
@@ -989,7 +992,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4678,15 +4681,21 @@
       <c r="L119" s="13"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A120" s="6"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="6">
+        <v>44343</v>
+      </c>
+      <c r="B120" s="7">
+        <v>4</v>
+      </c>
       <c r="C120" s="8">
         <v>0.6875</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="D120" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E120" s="2">
         <f t="shared" si="9"/>
-        <v>-0.6875</v>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>74</v>
@@ -4701,15 +4710,26 @@
       <c r="L120" s="13"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="8"/>
+      <c r="A121" s="6">
+        <v>44344</v>
+      </c>
+      <c r="B121" s="7">
+        <v>4</v>
+      </c>
+      <c r="C121" s="8">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="D121" s="8"/>
       <c r="E121" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="18"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G121" s="18" t="s">
+        <v>149</v>
+      </c>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
       <c r="J121" s="13"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="154">
   <si>
     <t>Date</t>
   </si>
@@ -487,6 +487,18 @@
   </si>
   <si>
     <t>Commentarisation du code</t>
+  </si>
+  <si>
+    <t>Notification style</t>
+  </si>
+  <si>
+    <t>Pop-up style</t>
+  </si>
+  <si>
+    <t>Gestion des utilisateurs</t>
+  </si>
+  <si>
+    <t>Button style</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1004,7 @@
   <dimension ref="A1:L149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122"/>
+      <selection activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4719,10 +4731,12 @@
       <c r="C121" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="8">
+        <v>0.36527777777777781</v>
+      </c>
       <c r="E121" s="2">
         <f t="shared" si="9"/>
-        <v>-0.33333333333333331</v>
+        <v>3.1944444444444497E-2</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>74</v>
@@ -4737,15 +4751,28 @@
       <c r="L121" s="13"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
+      <c r="A122" s="6">
+        <v>44344</v>
+      </c>
+      <c r="B122" s="7">
+        <v>4</v>
+      </c>
+      <c r="C122" s="8">
+        <v>0.36527777777777781</v>
+      </c>
+      <c r="D122" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E122" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="18"/>
+        <v>3.4027777777777768E-2</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G122" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -4753,15 +4780,28 @@
       <c r="L122" s="13"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="6"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
+      <c r="A123" s="6">
+        <v>44344</v>
+      </c>
+      <c r="B123" s="7">
+        <v>4</v>
+      </c>
+      <c r="C123" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D123" s="8">
+        <v>0.42638888888888887</v>
+      </c>
       <c r="E123" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="18"/>
+        <v>1.6666666666666607E-2</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123" s="18" t="s">
+        <v>151</v>
+      </c>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
@@ -4769,15 +4809,28 @@
       <c r="L123" s="13"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="6"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
+      <c r="A124" s="6">
+        <v>44344</v>
+      </c>
+      <c r="B124" s="7">
+        <v>4</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0.42638888888888887</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E124" s="2">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="18"/>
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G124" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
@@ -4785,63 +4838,167 @@
       <c r="L124" s="13"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E125" s="2"/>
+      <c r="A125" s="6">
+        <v>44344</v>
+      </c>
+      <c r="B125" s="7">
+        <v>4</v>
+      </c>
+      <c r="C125" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D125" s="8">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" ref="E125:E131" si="10">D125-C125</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G125" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E126" s="2"/>
+      <c r="A126" s="6"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G126" s="18"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E127" s="2"/>
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G127" s="18"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E128" s="2"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="2"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="2"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="6"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G128" s="18"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="13"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G130" s="18"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="6"/>
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G131" s="18"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="13"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E132" s="2"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E140" s="2"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E141" s="2"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E143" s="2"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E144" s="2"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="157">
   <si>
     <t>Date</t>
   </si>
@@ -499,6 +499,15 @@
   </si>
   <si>
     <t>Button style</t>
+  </si>
+  <si>
+    <t>Ajout d'ami</t>
+  </si>
+  <si>
+    <t>Plusieurs problèmes de conditions ont allongé la durée d'implémentation.</t>
+  </si>
+  <si>
+    <t>11:1+6</t>
   </si>
 </sst>
 </file>
@@ -1003,8 +1012,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H117" sqref="H117"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4866,32 +4875,60 @@
       <c r="K125" s="13"/>
       <c r="L125" s="13"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+    <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B126" s="7">
+        <v>5</v>
+      </c>
+      <c r="C126" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D126" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E126" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="18"/>
-      <c r="H126" s="13"/>
+        <v>6.5972222222222265E-2</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G126" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>155</v>
+      </c>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
       <c r="K126" s="13"/>
       <c r="L126" s="13"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="6"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="A127" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B127" s="7">
+        <v>5</v>
+      </c>
+      <c r="C127" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D127" s="8">
+        <v>0.45069444444444445</v>
+      </c>
       <c r="E127" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="18"/>
+        <v>4.0972222222222188E-2</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G127" s="18" t="s">
+        <v>154</v>
+      </c>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
@@ -4899,15 +4936,28 @@
       <c r="L127" s="13"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="A128" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B128" s="7">
+        <v>5</v>
+      </c>
+      <c r="C128" s="8">
+        <v>0.45069444444444445</v>
+      </c>
+      <c r="D128" s="8">
+        <v>0.4694444444444445</v>
+      </c>
       <c r="E128" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G128" s="18"/>
+        <v>1.8750000000000044E-2</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G128" s="18" t="s">
+        <v>152</v>
+      </c>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -4915,15 +4965,26 @@
       <c r="L128" s="13"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="8"/>
+      <c r="A129" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B129" s="7">
+        <v>5</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="D129" s="8"/>
-      <c r="E129" s="2">
+      <c r="E129" s="2" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="18"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G129" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
   <si>
     <t>Date</t>
   </si>
@@ -507,7 +507,15 @@
     <t>Plusieurs problèmes de conditions ont allongé la durée d'implémentation.</t>
   </si>
   <si>
-    <t>11:1+6</t>
+    <t>Recherche filtrée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flaviocopes.com/how-to-string-contains-substring-javascript/
+https://www.codegrepper.com/code-examples/html/how+to+make+dynamic+search+box+in+javascript
+https://www.w3schools.com/jsref/prop_node_childnodes.asp
+https://www.w3schools.com/jsref/jsref_includes.asp
+https://www.codegrepper.com/code-examples/javascript/check+if+string+contains+alpha+characters+javascript
+</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1020,8 @@
   </sheetPr>
   <dimension ref="A1:L149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,13 +4979,15 @@
       <c r="B129" s="7">
         <v>5</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="D129" s="8"/>
-      <c r="E129" s="2" t="e">
+      <c r="C129" s="8">
+        <v>0.4694444444444445</v>
+      </c>
+      <c r="D129" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E129" s="2">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>74</v>
@@ -4991,32 +5001,58 @@
       <c r="K129" s="13"/>
       <c r="L129" s="13"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="6"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
+    <row r="130" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B130" s="7">
+        <v>5</v>
+      </c>
+      <c r="C130" s="8">
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="D130" s="8">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E130" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="18"/>
+        <v>2.7083333333333293E-2</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
+      <c r="K130" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="L130" s="13"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="6"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="8"/>
+      <c r="A131" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B131" s="7">
+        <v>5</v>
+      </c>
+      <c r="C131" s="8">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D131" s="8"/>
       <c r="E131" s="2">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="18"/>
+        <v>-0.51041666666666663</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G131" s="18" t="s">
+        <v>156</v>
+      </c>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -5024,22 +5060,100 @@
       <c r="L131" s="13"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E132" s="2"/>
+      <c r="A132" s="6"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="2">
+        <f t="shared" ref="E132:E137" si="11">D132-C132</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="18"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+      <c r="K132" s="13"/>
+      <c r="L132" s="13"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E133" s="2"/>
+      <c r="A133" s="6"/>
+      <c r="B133" s="7"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G133" s="18"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+      <c r="K133" s="13"/>
+      <c r="L133" s="13"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E134" s="2"/>
+      <c r="A134" s="6"/>
+      <c r="B134" s="7"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G134" s="18"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E135" s="2"/>
+      <c r="A135" s="6"/>
+      <c r="B135" s="7"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G135" s="18"/>
+      <c r="H135" s="13"/>
+      <c r="I135" s="13"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E136" s="2"/>
+      <c r="A136" s="6"/>
+      <c r="B136" s="7"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G136" s="18"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E137" s="2"/>
+      <c r="A137" s="6"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G137" s="18"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E138" s="2"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -516,6 +516,9 @@
 https://www.w3schools.com/jsref/jsref_includes.asp
 https://www.codegrepper.com/code-examples/javascript/check+if+string+contains+alpha+characters+javascript
 </t>
+  </si>
+  <si>
+    <t>Gestion des catégories</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1021,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L149"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,7 +4871,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="E125" s="2">
-        <f t="shared" ref="E125:E131" si="10">D125-C125</f>
+        <f t="shared" ref="E125:E130" si="10">D125-C125</f>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -5040,12 +5043,14 @@
         <v>5</v>
       </c>
       <c r="C131" s="8">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D131" s="8"/>
+        <v>0.5625</v>
+      </c>
+      <c r="D131" s="8">
+        <v>0.59166666666666667</v>
+      </c>
       <c r="E131" s="2">
-        <f t="shared" si="10"/>
-        <v>-0.51041666666666663</v>
+        <f t="shared" ref="E131:E136" si="11">D131-C131</f>
+        <v>2.9166666666666674E-2</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>74</v>
@@ -5060,15 +5065,28 @@
       <c r="L131" s="13"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="6"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
+      <c r="A132" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B132" s="7">
+        <v>5</v>
+      </c>
+      <c r="C132" s="8">
+        <v>0.59166666666666667</v>
+      </c>
+      <c r="D132" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E132" s="2">
-        <f t="shared" ref="E132:E137" si="11">D132-C132</f>
-        <v>0</v>
-      </c>
-      <c r="G132" s="18"/>
+        <f t="shared" si="11"/>
+        <v>3.6805555555555536E-2</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G132" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
       <c r="J132" s="13"/>
@@ -5076,15 +5094,28 @@
       <c r="L132" s="13"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="6"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
+      <c r="A133" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B133" s="7">
+        <v>5</v>
+      </c>
+      <c r="C133" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D133" s="8">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="E133" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="18"/>
+        <v>2.4305555555555469E-2</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G133" s="18" t="s">
+        <v>158</v>
+      </c>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
       <c r="J133" s="13"/>
@@ -5092,13 +5123,19 @@
       <c r="L133" s="13"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="6"/>
-      <c r="B134" s="7"/>
-      <c r="C134" s="8"/>
+      <c r="A134" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B134" s="7">
+        <v>5</v>
+      </c>
+      <c r="C134" s="8">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="D134" s="8"/>
       <c r="E134" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.66319444444444442</v>
       </c>
       <c r="G134" s="18"/>
       <c r="H134" s="13"/>
@@ -5140,20 +5177,7 @@
       <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="6"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="2">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G137" s="18"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
+      <c r="E137" s="2"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E138" s="2"/>
@@ -5187,9 +5211,6 @@
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E148" s="2"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -519,6 +519,27 @@
   </si>
   <si>
     <t>Gestion des catégories</t>
+  </si>
+  <si>
+    <t>Profile style</t>
+  </si>
+  <si>
+    <t>Note moyenne</t>
+  </si>
+  <si>
+    <t>Affichage de la note moyenne des articles.</t>
+  </si>
+  <si>
+    <t>La base de données n'est plus fonctionnelle.</t>
+  </si>
+  <si>
+    <t>Réinstallation.</t>
+  </si>
+  <si>
+    <t>Mise en forme des fichiers sql</t>
+  </si>
+  <si>
+    <t>Commentaires utilisateur</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1044,8 @@
   </sheetPr>
   <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5132,12 +5153,19 @@
       <c r="C134" s="8">
         <v>0.66319444444444442</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="8">
+        <v>0.68125000000000002</v>
+      </c>
       <c r="E134" s="2">
         <f t="shared" si="11"/>
-        <v>-0.66319444444444442</v>
-      </c>
-      <c r="G134" s="18"/>
+        <v>1.8055555555555602E-2</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
       <c r="J134" s="13"/>
@@ -5145,71 +5173,257 @@
       <c r="L134" s="13"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="6"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
+      <c r="A135" s="6">
+        <v>44347</v>
+      </c>
+      <c r="B135" s="7">
+        <v>5</v>
+      </c>
+      <c r="C135" s="8">
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="D135" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E135" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G135" s="18"/>
-      <c r="H135" s="13"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G135" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="I135" s="13"/>
       <c r="J135" s="13"/>
       <c r="K135" s="13"/>
       <c r="L135" s="13"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="6"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B136" s="7">
+        <v>5</v>
+      </c>
+      <c r="C136" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D136" s="8">
+        <v>0.3611111111111111</v>
+      </c>
       <c r="E136" s="2">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G136" s="18"/>
+        <v>2.777777777777779E-2</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
+      <c r="I136" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="K136" s="13"/>
       <c r="L136" s="13"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E137" s="2"/>
+      <c r="A137" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B137" s="7">
+        <v>5</v>
+      </c>
+      <c r="C137" s="8">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="D137" s="8">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="E137" s="2">
+        <f t="shared" ref="E137:E146" si="12">D137-C137</f>
+        <v>1.3194444444444398E-2</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E138" s="2"/>
+      <c r="A138" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B138" s="7">
+        <v>5</v>
+      </c>
+      <c r="C138" s="8">
+        <v>0.3743055555555555</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="2">
+        <f t="shared" si="12"/>
+        <v>-0.3743055555555555</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G138" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="13"/>
+      <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E139" s="2"/>
+      <c r="A139" s="6"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G139" s="18"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="13"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E140" s="2"/>
+      <c r="A140" s="6"/>
+      <c r="B140" s="7"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="18"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+      <c r="K140" s="13"/>
+      <c r="L140" s="13"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E141" s="2"/>
+      <c r="A141" s="6"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G141" s="18"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E142" s="2"/>
+      <c r="A142" s="6"/>
+      <c r="B142" s="7"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G142" s="18"/>
+      <c r="H142" s="13"/>
+      <c r="I142" s="13"/>
+      <c r="J142" s="13"/>
+      <c r="K142" s="13"/>
+      <c r="L142" s="13"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E143" s="2"/>
+      <c r="A143" s="6"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G143" s="18"/>
+      <c r="H143" s="13"/>
+      <c r="I143" s="13"/>
+      <c r="J143" s="13"/>
+      <c r="K143" s="13"/>
+      <c r="L143" s="13"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E144" s="2"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="2"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="2"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="6"/>
+      <c r="B144" s="7"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G144" s="18"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+      <c r="K144" s="13"/>
+      <c r="L144" s="13"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="6"/>
+      <c r="B145" s="7"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G145" s="18"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+      <c r="K145" s="13"/>
+      <c r="L145" s="13"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="6"/>
+      <c r="B146" s="7"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G146" s="18"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+      <c r="K146" s="13"/>
+      <c r="L146" s="13"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E147" s="2"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E148" s="2"/>
     </row>
   </sheetData>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="166">
   <si>
     <t>Date</t>
   </si>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5275,10 +5275,12 @@
       <c r="C138" s="8">
         <v>0.3743055555555555</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E138" s="2">
         <f t="shared" si="12"/>
-        <v>-0.3743055555555555</v>
+        <v>2.5000000000000078E-2</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>74</v>
@@ -5293,15 +5295,28 @@
       <c r="L138" s="13"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="6"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="A139" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B139" s="7">
+        <v>5</v>
+      </c>
+      <c r="C139" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D139" s="8">
+        <v>0.42430555555555555</v>
+      </c>
       <c r="E139" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G139" s="18"/>
+        <v>1.4583333333333282E-2</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>165</v>
+      </c>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
@@ -5309,29 +5324,53 @@
       <c r="L139" s="13"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="6"/>
-      <c r="B140" s="7"/>
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="A140" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B140" s="7">
+        <v>5</v>
+      </c>
+      <c r="C140" s="8">
+        <v>0.42430555555555555</v>
+      </c>
+      <c r="D140" s="8">
+        <v>0.45624999999999999</v>
+      </c>
       <c r="E140" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G140" s="18"/>
-      <c r="H140" s="13"/>
+        <v>3.1944444444444442E-2</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G140" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
       <c r="K140" s="13"/>
       <c r="L140" s="13"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="6"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="8"/>
+      <c r="A141" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B141" s="7">
+        <v>5</v>
+      </c>
+      <c r="C141" s="8">
+        <v>0.45624999999999999</v>
+      </c>
       <c r="D141" s="8"/>
       <c r="E141" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.45624999999999999</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G141" s="18"/>
       <c r="H141" s="13"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Commentaires utilisateur</t>
+  </si>
+  <si>
+    <t>Style du site</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1048,7 @@
   <dimension ref="A1:L148"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,15 +5367,19 @@
       <c r="C141" s="8">
         <v>0.45624999999999999</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" s="8">
+        <v>0.49374999999999997</v>
+      </c>
       <c r="E141" s="2">
         <f t="shared" si="12"/>
-        <v>-0.45624999999999999</v>
+        <v>3.7499999999999978E-2</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G141" s="18"/>
+      <c r="G141" s="18" t="s">
+        <v>166</v>
+      </c>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
@@ -5380,13 +5387,22 @@
       <c r="L141" s="13"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="6"/>
-      <c r="B142" s="7"/>
-      <c r="C142" s="8"/>
+      <c r="A142" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B142" s="7">
+        <v>5</v>
+      </c>
+      <c r="C142" s="8">
+        <v>0.49374999999999997</v>
+      </c>
       <c r="D142" s="8"/>
       <c r="E142" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-0.49374999999999997</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="G142" s="18"/>
       <c r="H142" s="13"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
     <sheet name="Rapport" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="176">
   <si>
     <t>Date</t>
   </si>
@@ -543,6 +546,35 @@
   </si>
   <si>
     <t>Style du site</t>
+  </si>
+  <si>
+    <t>Ajout d'œuvre</t>
+  </si>
+  <si>
+    <t>Finalisation du champs d''entrée des catégories.</t>
+  </si>
+  <si>
+    <t>Par catégorie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.php.net/manual/fr/function.number-format.php
+https://stackoverflow.com/questions/3304014/how-to-interpolate-variables-in-strings-in-javascript-without-concatenation
+</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/6507014/how-to-space-the-children-of-a-div-with-css</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/fr/function.implode.php</t>
+  </si>
+  <si>
+    <t>Mise en production</t>
+  </si>
+  <si>
+    <t>Mise en production de la dernière version du site</t>
+  </si>
+  <si>
+    <t>Rédaction d'un mail</t>
   </si>
 </sst>
 </file>
@@ -1045,10 +1077,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,7 +4613,7 @@
       <c r="K114" s="13"/>
       <c r="L114" s="13"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>44343</v>
       </c>
@@ -4609,7 +4641,7 @@
       </c>
       <c r="I115" s="13"/>
       <c r="J115" s="13"/>
-      <c r="K115" t="s">
+      <c r="K115" s="14" t="s">
         <v>145</v>
       </c>
       <c r="L115" s="13"/>
@@ -5326,7 +5358,7 @@
       <c r="K139" s="13"/>
       <c r="L139" s="13"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>44348</v>
       </c>
@@ -5354,7 +5386,9 @@
       </c>
       <c r="I140" s="13"/>
       <c r="J140" s="13"/>
-      <c r="K140" s="13"/>
+      <c r="K140" s="13" t="s">
+        <v>170</v>
+      </c>
       <c r="L140" s="13"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -5386,7 +5420,7 @@
       <c r="K141" s="13"/>
       <c r="L141" s="13"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>44348</v>
       </c>
@@ -5396,90 +5430,307 @@
       <c r="C142" s="8">
         <v>0.49374999999999997</v>
       </c>
-      <c r="D142" s="8"/>
+      <c r="D142" s="8">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E142" s="2">
         <f t="shared" si="12"/>
-        <v>-0.49374999999999997</v>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G142" s="18"/>
-      <c r="H142" s="13"/>
+      <c r="G142" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="I142" s="13"/>
       <c r="J142" s="13"/>
       <c r="K142" s="13"/>
       <c r="L142" s="13"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="6"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B143" s="7">
+        <v>5</v>
+      </c>
+      <c r="C143" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D143" s="8">
+        <v>0.59375</v>
+      </c>
       <c r="E143" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G143" s="18"/>
-      <c r="H143" s="13"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="I143" s="13"/>
       <c r="J143" s="13"/>
-      <c r="K143" s="13"/>
+      <c r="K143" s="14" t="s">
+        <v>171</v>
+      </c>
       <c r="L143" s="13"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="6"/>
-      <c r="B144" s="7"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="A144" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B144" s="7">
+        <v>5</v>
+      </c>
+      <c r="C144" s="8">
+        <v>0.59375</v>
+      </c>
+      <c r="D144" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E144" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G144" s="18"/>
-      <c r="H144" s="13"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="I144" s="13"/>
       <c r="J144" s="13"/>
       <c r="K144" s="13"/>
       <c r="L144" s="13"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="6"/>
-      <c r="B145" s="7"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
+    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B145" s="7">
+        <v>5</v>
+      </c>
+      <c r="C145" s="8">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0.64236111111111105</v>
+      </c>
       <c r="E145" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G145" s="18"/>
-      <c r="H145" s="13"/>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G145" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="I145" s="13"/>
       <c r="J145" s="13"/>
-      <c r="K145" s="13"/>
+      <c r="K145" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="L145" s="13"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="6"/>
-      <c r="B146" s="7"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
+    <row r="146" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B146" s="7">
+        <v>5</v>
+      </c>
+      <c r="C146" s="8">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D146" s="8">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="E146" s="2">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G146" s="18"/>
-      <c r="H146" s="13"/>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G146" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="I146" s="13"/>
       <c r="J146" s="13"/>
       <c r="K146" s="13"/>
       <c r="L146" s="13"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E147" s="2"/>
+      <c r="A147" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B147" s="7">
+        <v>5</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E147" s="2">
+        <f t="shared" ref="E147:E154" si="13">D147-C147</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="13"/>
+      <c r="L147" s="13"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E148" s="2"/>
+      <c r="A148" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B148" s="7">
+        <v>5</v>
+      </c>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G148" s="18"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
+      <c r="L148" s="13"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B149" s="7">
+        <v>5</v>
+      </c>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G149" s="18"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
+      <c r="L149" s="13"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B150" s="7">
+        <v>5</v>
+      </c>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G150" s="18"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
+      <c r="L150" s="13"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="7"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G151" s="18"/>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+      <c r="K151" s="13"/>
+      <c r="L151" s="13"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="6"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G152" s="18"/>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+      <c r="K152" s="13"/>
+      <c r="L152" s="13"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="7"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G153" s="18"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+      <c r="K153" s="13"/>
+      <c r="L153" s="13"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A154" s="6"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G154" s="18"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+      <c r="K154" s="13"/>
+      <c r="L154" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
@@ -5532,8 +5783,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="182">
   <si>
     <t>Date</t>
   </si>
@@ -575,6 +575,24 @@
   </si>
   <si>
     <t>Rédaction d'un mail</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Tests de la stratégie</t>
+  </si>
+  <si>
+    <t>Manuel d'installation</t>
+  </si>
+  <si>
+    <t>Sources, glossaire</t>
+  </si>
+  <si>
+    <t>Vérification de l'exhaustivité</t>
+  </si>
+  <si>
+    <t>Vérification de l'exhaustivité de la documentation.</t>
   </si>
 </sst>
 </file>
@@ -750,7 +768,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1077,10 +1158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,18 +5691,27 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B148" s="7">
         <v>5</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
+      <c r="C148" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0.37847222222222227</v>
+      </c>
       <c r="E148" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G148" s="18"/>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
       <c r="J148" s="13"/>
@@ -5630,19 +5720,30 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B149" s="7">
         <v>5</v>
       </c>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
+      <c r="C149" s="8">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0.39930555555555558</v>
+      </c>
       <c r="E149" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G149" s="18"/>
-      <c r="H149" s="13"/>
+        <v>2.0833333333333315E-2</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G149" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I149" s="13"/>
       <c r="J149" s="13"/>
       <c r="K149" s="13"/>
@@ -5650,34 +5751,58 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>44348</v>
+        <v>44350</v>
       </c>
       <c r="B150" s="7">
         <v>5</v>
       </c>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
+      <c r="C150" s="8">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D150" s="8">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="E150" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="13"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G150" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>20</v>
+      </c>
       <c r="I150" s="13"/>
       <c r="J150" s="13"/>
       <c r="K150" s="13"/>
       <c r="L150" s="13"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
+      <c r="A151" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B151" s="7">
+        <v>5</v>
+      </c>
+      <c r="C151" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D151" s="8">
+        <v>0.4861111111111111</v>
+      </c>
       <c r="E151" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G151" s="18"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G151" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
       <c r="J151" s="13"/>
@@ -5685,76 +5810,232 @@
       <c r="L151" s="13"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="6"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
+      <c r="A152" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B152" s="7">
+        <v>5</v>
+      </c>
+      <c r="C152" s="8">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D152" s="8">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E152" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G152" s="18"/>
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
       <c r="J152" s="13"/>
       <c r="K152" s="13"/>
       <c r="L152" s="13"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="7"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B153" s="7">
+        <v>5</v>
+      </c>
+      <c r="C153" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="D153" s="8">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="E153" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G153" s="18"/>
-      <c r="H153" s="13"/>
+        <v>6.597222222222221E-2</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G153" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H153" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="I153" s="13"/>
       <c r="J153" s="13"/>
       <c r="K153" s="13"/>
       <c r="L153" s="13"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" s="6"/>
-      <c r="B154" s="7"/>
-      <c r="C154" s="8"/>
+    <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>44350</v>
+      </c>
+      <c r="B154" s="7">
+        <v>5</v>
+      </c>
+      <c r="C154" s="8">
+        <v>0.63888888888888895</v>
+      </c>
       <c r="D154" s="8"/>
       <c r="E154" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="13"/>
+        <v>-0.63888888888888895</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G154" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H154" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="I154" s="13"/>
       <c r="J154" s="13"/>
       <c r="K154" s="13"/>
       <c r="L154" s="13"/>
     </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A155" s="6"/>
+      <c r="B155" s="7"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="2">
+        <f t="shared" ref="E155:E161" si="14">D155-C155</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="18"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+      <c r="K155" s="13"/>
+      <c r="L155" s="13"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="7"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="18"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="6"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G157" s="18"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="6"/>
+      <c r="B158" s="7"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G158" s="18"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="6"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="18"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="6"/>
+      <c r="B160" s="7"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G160" s="18"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="6"/>
+      <c r="B161" s="7"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="18"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="F1:F149 F151:F1048576">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Problème"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>"Réalisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"Communication"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>"Organisation"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="equal">
       <formula>"Conception"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
       <formula>"Analyse"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Documentation"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5764,7 +6045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -5774,13 +6055,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
         <color theme="0" tint="-0.34998626667073579"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F150">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"Documentation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"Problème"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Réalisation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Communication"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"Organisation"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"Conception"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>"Analyse"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Tests"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Documentation/Édition/journal de travail.xlsx
+++ b/Documentation/Édition/journal de travail.xlsx
@@ -1160,9 +1160,7 @@
   </sheetPr>
   <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5879,10 +5877,12 @@
       <c r="C154" s="8">
         <v>0.63888888888888895</v>
       </c>
-      <c r="D154" s="8"/>
+      <c r="D154" s="8">
+        <v>0.70486111111111116</v>
+      </c>
       <c r="E154" s="2">
         <f t="shared" si="13"/>
-        <v>-0.63888888888888895</v>
+        <v>6.597222222222221E-2</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>20</v>
@@ -6102,9 +6102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
